--- a/bank statement generator/bank_statements/statement_142.xlsx
+++ b/bank statement generator/bank_statements/statement_142.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.10.2023</t>
+          <t>KONTOSTAND AM 02.05.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>28.10.</t>
+          <t>04.05.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>29.10.</t>
+          <t>05.05.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 90042871</t>
+          <t>KARTENZ./04.05 EDEKA RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>83,21-</t>
+          <t>146,75-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>31.10.</t>
+          <t>07.05.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>01.11.</t>
+          <t>08.05.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU NATKMC</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 49394708</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>69,66-</t>
+          <t>86,90-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>03.11.</t>
+          <t>10.05.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>04.11.</t>
+          <t>11.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-65760657</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>53,12-</t>
+          <t>24,58-</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 07.11.2023</t>
+          <t>KONTOSTAND AM 15.05.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>205,99-</t>
+          <t>258,23-</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 12.11.2023</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 25.05.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
